--- a/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.09155207759314</v>
+        <v>-16.49042331011664</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.09181153685693</v>
+        <v>-17.93552400627873</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.685822594952312</v>
+        <v>5.897769094953705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-17.97278615052182</v>
+        <v>-18.12682674685623</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-17.79776123518951</v>
+        <v>-18.53281380221447</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.067324281239475</v>
+        <v>3.967549867152112</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-14.61861566546587</v>
+        <v>-14.1130002060983</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-15.33153985666829</v>
+        <v>-15.56109717070555</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.385544669682975</v>
+        <v>7.490535019356007</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.970402382845666</v>
+        <v>2.116776387507419</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2180827770752525</v>
+        <v>-0.1525739855001534</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.17165812502852</v>
+        <v>23.73140860373089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06318655017302799</v>
+        <v>-0.4681769517199102</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3245298629719842</v>
+        <v>-0.4662244492706107</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.53256801393956</v>
+        <v>21.19874615787592</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.014297949097403</v>
+        <v>-1.528205114350361</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.985703904315169</v>
+        <v>-2.54476679040193</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.81567253975019</v>
+        <v>19.58405292485991</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4329945321187945</v>
+        <v>-0.4337827080951176</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4748916547362815</v>
+        <v>-0.4707642317467907</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1596876914800008</v>
+        <v>0.1467697264694343</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4461646979228432</v>
+        <v>-0.441614312213351</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4477593594768112</v>
+        <v>-0.4621445603402973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1296031232060301</v>
+        <v>0.09861915192615527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.389411040856639</v>
+        <v>-0.3769743400054807</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4144240389548585</v>
+        <v>-0.4215479893275285</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1951427824285983</v>
+        <v>0.1970799862604544</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.036567163474354</v>
+        <v>0.0932289909930667</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01176441892261074</v>
+        <v>-0.002673112845195465</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9528811643669791</v>
+        <v>0.8646448418040446</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.007394067997565507</v>
+        <v>-0.007441810558717421</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.007413113215387225</v>
+        <v>-0.01611161301169116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7574565531375616</v>
+        <v>0.7272370548821238</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07145657705733872</v>
+        <v>-0.04973926445676835</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1024871004334858</v>
+        <v>-0.08606377485865435</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6605799383837931</v>
+        <v>0.6479681460283032</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>6.987930812881649</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.617658567809483</v>
+        <v>8.617658567809478</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.5093193510561589</v>
@@ -878,7 +878,7 @@
         <v>4.843173385159572</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.808076850277237</v>
+        <v>9.808076850277248</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.174545537632753</v>
+        <v>-8.378272478276653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.274674004707583</v>
+        <v>-4.294238431858214</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.147719754339454</v>
+        <v>4.345108343028922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.158689536933205</v>
+        <v>-5.22890142437469</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2708649584220472</v>
+        <v>0.3013792502909241</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.903477643828661</v>
+        <v>3.091564192093686</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.69783046953319</v>
+        <v>-5.196085311672311</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.534630115149581</v>
+        <v>0.3699459678543681</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.882884006060833</v>
+        <v>5.400299724244247</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.486762771686754</v>
+        <v>4.249067326318547</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.923816788847597</v>
+        <v>9.189509493386177</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.24468500267066</v>
+        <v>18.75687439891064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.415859774979437</v>
+        <v>7.336467162888793</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.22934621880093</v>
+        <v>12.62950168965464</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.20349914058624</v>
+        <v>14.49569709154303</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.485012848096068</v>
+        <v>4.129154022982673</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.17552328870406</v>
+        <v>9.020121823323199</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.82651402505388</v>
+        <v>14.39501705048183</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.261275678587907</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3222104869717243</v>
+        <v>0.3222104869717241</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01938456742605966</v>
@@ -983,7 +983,7 @@
         <v>0.1843299706677973</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3732929578071543</v>
+        <v>0.3732929578071547</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.318274615151283</v>
+        <v>-0.293771708515684</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1519047413873</v>
+        <v>-0.1474991029206314</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1452984572527576</v>
+        <v>0.1452918638274346</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1753701759041063</v>
+        <v>-0.1723246391711035</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.00863095937962286</v>
+        <v>0.01471570032958272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09741842148495532</v>
+        <v>0.09568632926466861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1675467878454804</v>
+        <v>-0.183475202221163</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01786554454915775</v>
+        <v>0.01196330192606197</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2020884922831981</v>
+        <v>0.186344306833738</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1577772566253718</v>
+        <v>0.1992788477867443</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3864798650762944</v>
+        <v>0.4120408808995329</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8032560651468235</v>
+        <v>0.8470721101236782</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3194947287285874</v>
+        <v>0.2988162929667866</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5678914383440562</v>
+        <v>0.5322414610713363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6104619412570191</v>
+        <v>0.6302780414688386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1424769511460096</v>
+        <v>0.1672651396055912</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4184045784838998</v>
+        <v>0.3631162387706026</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6097318394503763</v>
+        <v>0.5980046982651375</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-7.539536454827228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-7.280399757644182</v>
+        <v>-7.28039975764419</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.571584353211905</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.14643768256046</v>
+        <v>-13.82343870289703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.62070749647591</v>
+        <v>-14.79131744844106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.09070838468129</v>
+        <v>-14.88775340053906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.968770224217164</v>
+        <v>-2.662675435986502</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.774733447346238</v>
+        <v>-7.573267788708033</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.960314775580001</v>
+        <v>-6.162269331878453</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.34735418754619</v>
+        <v>-5.270929968169073</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.338605235268089</v>
+        <v>-8.978347533397912</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.305043498803725</v>
+        <v>-8.192249798358626</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8922192052193813</v>
+        <v>1.2744974487467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1936704424226514</v>
+        <v>-0.2309947619445819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9679509740713129</v>
+        <v>1.068586994935494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.41613691919353</v>
+        <v>11.549878847014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.327161699058072</v>
+        <v>7.005888341451485</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.812784523650614</v>
+        <v>7.594970917935775</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.596094615566224</v>
+        <v>5.095490158312595</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.756520956509363</v>
+        <v>1.606614221507689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.783689426076423</v>
+        <v>1.950039641099233</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2473927457297011</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.238889764224201</v>
+        <v>-0.2388897642242013</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1773155724368938</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4062231596063842</v>
+        <v>-0.3967417103556521</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4405517550695812</v>
+        <v>-0.4291555854470248</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4138703336914798</v>
+        <v>-0.4195820201807387</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1042138117245689</v>
+        <v>-0.0925808324879687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2626935742672374</v>
+        <v>-0.2596367181375369</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1991853941216107</v>
+        <v>-0.2038166368678018</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1715226268262049</v>
+        <v>-0.1724702479399596</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2999056450161248</v>
+        <v>-0.2926424222152875</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2609206196961051</v>
+        <v>-0.2585058128226975</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.03124581914823884</v>
+        <v>0.06370941262404349</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.008822262668457072</v>
+        <v>-0.01075211654092637</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.04211071329034338</v>
+        <v>0.05336170635872822</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5025445769734402</v>
+        <v>0.5284476092154977</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2915535941758176</v>
+        <v>0.322239411925057</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.32224879042934</v>
+        <v>0.3478603479504792</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2241081725134353</v>
+        <v>0.2143712380167992</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07033119599653419</v>
+        <v>0.06619246805203297</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.07835984039168091</v>
+        <v>0.08345625149909321</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-3.696647350568516</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.34364666299086</v>
+        <v>18.34364666299085</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.6367063281171037</v>
@@ -1306,7 +1306,7 @@
         <v>-4.076135021180077</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>19.30465670834602</v>
+        <v>19.30465670834603</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.859403893318218</v>
+        <v>-8.665545803607353</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.84262101103859</v>
+        <v>-11.72888735367905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.06512414751024</v>
+        <v>12.09528849240821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.110632747411677</v>
+        <v>-5.557810942189012</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.27286169161981</v>
+        <v>-10.30498278687854</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.4216372646104</v>
+        <v>11.42706909304292</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.287006756743802</v>
+        <v>-4.491800872328771</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.934908623605006</v>
+        <v>-8.91892463281707</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.1247522019745</v>
+        <v>13.98324810377733</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.74724490109509</v>
+        <v>7.969169002393286</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.980372628638358</v>
+        <v>3.387730961412386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.60892133116928</v>
+        <v>29.65151772272813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.569094262120098</v>
+        <v>9.158205936080805</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.273805391902318</v>
+        <v>2.837125666172864</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.95722629147804</v>
+        <v>25.06047883303052</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.213499586739931</v>
+        <v>5.838900292938082</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.825382612675104</v>
+        <v>0.7525445029994219</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.57375345480537</v>
+        <v>24.79473615730183</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.128575648105611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6380230610722587</v>
+        <v>0.6380230610722584</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.0218009410089674</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1395676078862358</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6609949728968511</v>
+        <v>0.6609949728968514</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2329589934492569</v>
+        <v>-0.2487247727656404</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3531436359738624</v>
+        <v>-0.3527296535704924</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3244812603217749</v>
+        <v>0.3470472506878093</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1880300432725443</v>
+        <v>-0.1755954632496012</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3375807392929165</v>
+        <v>-0.3289683530406551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3446046492100744</v>
+        <v>0.3514417265366929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1333552359268471</v>
+        <v>-0.1442616744096586</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2866517484080707</v>
+        <v>-0.2740025099072406</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4489365804982728</v>
+        <v>0.4331649612545018</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3005784558672527</v>
+        <v>0.3340430674537759</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1103111057166513</v>
+        <v>0.1426069412586614</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.114103629437809</v>
+        <v>1.149157291675285</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3452110880534434</v>
+        <v>0.3631053032775224</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1335225331750038</v>
+        <v>0.1139383052644739</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.020559830490508</v>
+        <v>1.037304974132584</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2385271267920256</v>
+        <v>0.2278798558809416</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03073319387247306</v>
+        <v>0.04024236898394438</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9289282582882609</v>
+        <v>0.9335830153034066</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>46.16970917081105</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>64.48270494340294</v>
+        <v>64.48270494340291</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.535802247750198</v>
+        <v>-6.435619540359311</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>35.98016592961225</v>
+        <v>34.90029527174012</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57.78497051779114</v>
+        <v>56.67740357505664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.78580686780102</v>
+        <v>-4.498462297576347</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>34.40480749879115</v>
+        <v>34.80791935301929</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>56.30198689284131</v>
+        <v>55.34739852657713</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.629060776554703</v>
+        <v>-3.334885993612566</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>38.84436544615081</v>
+        <v>38.96282400878518</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>59.51845907069618</v>
+        <v>58.91801665272379</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.948771072537472</v>
+        <v>10.99217729180759</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>57.12926402591332</v>
+        <v>56.89602071868223</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72.17494808053466</v>
+        <v>71.83953896114535</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.20346862086219</v>
+        <v>13.6721820489378</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>54.57972080418935</v>
+        <v>54.38883997315336</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>71.38869899964777</v>
+        <v>70.1105113610607</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.02023297554714</v>
+        <v>8.690340312302681</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>54.01663556707481</v>
+        <v>52.81048712469902</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>69.59872740092956</v>
+        <v>69.20606578876</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>2.061270541832697</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2.878863708363082</v>
+        <v>2.878863708363081</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2574193926894627</v>
+        <v>-0.2650320683344125</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.446821740702021</v>
+        <v>1.376138635165672</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>2.175330949976357</v>
+        <v>2.126983671358422</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1745541259290873</v>
+        <v>-0.1490048153265527</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.180553525294442</v>
+        <v>1.153750600642266</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.810766418405191</v>
+        <v>1.761915690293244</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1073964720081278</v>
+        <v>-0.1331808662816878</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>1.466981201499113</v>
+        <v>1.474965582565747</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2.253674005546753</v>
+        <v>2.200279791699925</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5888795400671343</v>
+        <v>0.6605266217812661</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.525967079617372</v>
+        <v>3.679767719360419</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.634440574032449</v>
+        <v>4.503565719136859</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7314140802902463</v>
+        <v>0.7090444680812257</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.835878214794207</v>
+        <v>2.854207436249809</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.9832916309731</v>
+        <v>3.774677797829049</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5173257275184278</v>
+        <v>0.4543556230160758</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.829758296960616</v>
+        <v>2.753283166729661</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.803497081354903</v>
+        <v>3.779926504599086</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-12.02111174020782</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-17.79406944635696</v>
+        <v>-17.79406944635697</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-6.348154499097047</v>
@@ -1725,7 +1725,7 @@
         <v>-1.402420150420769</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-13.14177269168333</v>
+        <v>-13.14177269168332</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-5.569743374671443</v>
@@ -1734,7 +1734,7 @@
         <v>-6.552764423666607</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-15.42031586059132</v>
+        <v>-15.42031586059133</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-13.94381803248737</v>
+        <v>-14.39858837486742</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-20.3195060286425</v>
+        <v>-22.10202086886293</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-26.23750443000766</v>
+        <v>-25.80825876860141</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-14.77459607419196</v>
+        <v>-15.29655496317134</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-10.83397716600954</v>
+        <v>-9.825920098407257</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-20.7919844673825</v>
+        <v>-21.27868121179164</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.31593700923817</v>
+        <v>-11.89092090658889</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-13.2295166707062</v>
+        <v>-12.6078801788698</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-21.15928098109839</v>
+        <v>-21.12584221925771</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.009366160632363</v>
+        <v>4.451020722841774</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.819198626724453</v>
+        <v>-3.916437376145583</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-9.580004014516296</v>
+        <v>-9.549177055420461</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.45221535070904</v>
+        <v>1.561414248589796</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.931365544662493</v>
+        <v>7.918944468435742</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-5.909373382554531</v>
+        <v>-5.682494968511461</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.6700582860380594</v>
+        <v>0.780914505569954</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.1399139668455539</v>
+        <v>-0.2954847987547757</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-10.09600270492423</v>
+        <v>-9.865195356141161</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.3391703421797545</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.5020517863339377</v>
+        <v>-0.5020517863339379</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1921607217744172</v>
@@ -1830,7 +1830,7 @@
         <v>-0.04245171858595654</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3978057758657881</v>
+        <v>-0.3978057758657879</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.162878685199962</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1916256426831987</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.4509437156769175</v>
+        <v>-0.4509437156769177</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3465345769071753</v>
+        <v>-0.3377333420228528</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5156786250954254</v>
+        <v>-0.5247964632394696</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.659590010016138</v>
+        <v>-0.6388120354314887</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.399441517107297</v>
+        <v>-0.3967460783361434</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2787208581491706</v>
+        <v>-0.2650247789837139</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.545378419689075</v>
+        <v>-0.5593231088846066</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3268527274555741</v>
+        <v>-0.3207881917846763</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3497382493199314</v>
+        <v>-0.3392195938854322</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5511019382546412</v>
+        <v>-0.5561269836582685</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.161775438529895</v>
+        <v>0.1465826838090399</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.09946324014491958</v>
+        <v>-0.1207415266783678</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3247798611908146</v>
+        <v>-0.324290155935527</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.07987093024465736</v>
+        <v>0.05861009828448641</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.249593093727162</v>
+        <v>0.285163956339288</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2067232706861435</v>
+        <v>-0.2038528875829324</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02882358982120118</v>
+        <v>0.02179776804287422</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.004400798517796065</v>
+        <v>-0.00812126225308688</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.3292988593746706</v>
+        <v>-0.319445547583799</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>8.604355800657693</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>19.92545209338534</v>
+        <v>19.92545209338535</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.941380041913756</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.287228218203823</v>
+        <v>-4.277324537504866</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.4621680084480178</v>
+        <v>-0.5967238108498343</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>13.68365522110681</v>
+        <v>13.67991382230225</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.8166554955489935</v>
+        <v>0.8927147914736586</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.423535478259124</v>
+        <v>2.916696310227192</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>14.32567632540521</v>
+        <v>14.82633755113836</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.4625579074373311</v>
+        <v>-0.3029001676359707</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.331776607647247</v>
+        <v>2.981536708146585</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>16.11183933764853</v>
+        <v>15.6427529451431</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.870244978377076</v>
+        <v>7.099091831042522</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.10013925153386</v>
+        <v>12.22343518608571</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>25.99080441433406</v>
+        <v>26.01030703692746</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.98943416855705</v>
+        <v>11.44444721078574</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>14.31186397335468</v>
+        <v>14.40333669400285</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>25.10707315770859</v>
+        <v>25.61706806740963</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.668779739535136</v>
+        <v>7.454628256340906</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.61769230547524</v>
+        <v>11.86640064922697</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>23.75928760300454</v>
+        <v>23.58301128220944</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.3365239379206684</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7793019906037729</v>
+        <v>0.7793019906037734</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1517182822642569</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1496725566200831</v>
+        <v>-0.1369936608174748</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.01637052122338527</v>
+        <v>-0.02308882819851445</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4571888112042067</v>
+        <v>0.4524444650432327</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.03204258893236396</v>
+        <v>0.02879931172532273</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1004878275893147</v>
+        <v>0.1018701291410645</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4925996301742909</v>
+        <v>0.5131427995875564</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01597944779761189</v>
+        <v>-0.01134340571842389</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1212139409645973</v>
+        <v>0.09894267835045331</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5660793168663855</v>
+        <v>0.5567134665458638</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2889156029398622</v>
+        <v>0.302924141095366</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5267624368759622</v>
+        <v>0.5012313379974381</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.136996772076704</v>
+        <v>1.133995117500215</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5390546047323667</v>
+        <v>0.4897010911415215</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6519737886181983</v>
+        <v>0.6227121332920454</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.093585007498441</v>
+        <v>1.130507720456593</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3183723380086396</v>
+        <v>0.3063949714061416</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4816465299665176</v>
+        <v>0.4939599581902303</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.000678217333953</v>
+        <v>0.9907666276856456</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>18.00316129348342</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>34.96324350774123</v>
+        <v>34.96324350774122</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>7.49640821166882</v>
@@ -2162,7 +2162,7 @@
         <v>20.32042737654704</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>33.91516998106599</v>
+        <v>33.91516998106597</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.902179018899282</v>
+        <v>6.092398397623707</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>17.09987858278156</v>
+        <v>17.48687922787652</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>27.17339152795221</v>
+        <v>27.12120933951066</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.50719780836837</v>
+        <v>-2.225681023009742</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>12.26074443563609</v>
+        <v>12.42336215368671</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>29.74069995240769</v>
+        <v>30.27973671910063</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.484404206675421</v>
+        <v>3.526902390499395</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>16.56374672289258</v>
+        <v>16.0358124535815</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>30.37778262024055</v>
+        <v>30.31380700926093</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>17.45976167969706</v>
+        <v>17.7807118815784</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>28.13884841924164</v>
+        <v>28.46316174472542</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>38.07568284566173</v>
+        <v>38.66892484040442</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9.330214845787006</v>
+        <v>8.830496528530446</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>23.43957850275819</v>
+        <v>23.27699366644119</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>39.87823523041988</v>
+        <v>39.83981340825778</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>11.28492012917626</v>
+        <v>11.41921176905471</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>24.29666950647388</v>
+        <v>24.21881855352119</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>37.50234643992729</v>
+        <v>37.89117319177212</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.6315032810137479</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1.053990682494274</v>
+        <v>1.053990682494273</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1698721139388887</v>
+        <v>0.1770427730807612</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.5202010978190388</v>
+        <v>0.5190062089752143</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8023666736523141</v>
+        <v>0.8052168702613328</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.04249787763310923</v>
+        <v>-0.06101543433650982</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.3388439650938534</v>
+        <v>0.3358722291546975</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7970446877567335</v>
+        <v>0.816993388628214</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1049847321681575</v>
+        <v>0.1014608634318392</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4833375860289293</v>
+        <v>0.4633332327888509</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.8861989110831303</v>
+        <v>0.8765906316059848</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6375098387057445</v>
+        <v>0.6582192269115594</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.060934082412962</v>
+        <v>1.06279700010137</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.41299579172663</v>
+        <v>1.451268926052974</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2971949167936797</v>
+        <v>0.2860223950496617</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.763702395602582</v>
+        <v>0.7375183087728089</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.304000055309099</v>
+        <v>1.309946328880345</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3829808695534272</v>
+        <v>0.3842550159484215</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.8175411061406321</v>
+        <v>0.8132223252799342</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.27475924245703</v>
+        <v>1.271622433792724</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.486291825061228</v>
+        <v>-1.476686078347489</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>3.778923000227006</v>
+        <v>3.529342201715935</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>15.68669584614539</v>
+        <v>16.07307615454705</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.2520115992970791</v>
+        <v>-0.1468309821201025</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>5.664407021981723</v>
+        <v>5.176958863520902</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>17.27649243291746</v>
+        <v>17.28367544790551</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.1690254446853033</v>
+        <v>-0.1802328613729249</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>5.511404483680331</v>
+        <v>5.351660969426978</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>17.24605969839809</v>
+        <v>17.41527973344109</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.439589950549212</v>
+        <v>3.515618903159788</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>8.923463059683275</v>
+        <v>8.817808289181272</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>20.95077284746037</v>
+        <v>21.25661887566854</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.588139760298859</v>
+        <v>4.667952781248319</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>10.75525449256643</v>
+        <v>10.38123911956776</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>21.86629620282104</v>
+        <v>21.83651234343903</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.291958101401832</v>
+        <v>3.386249757938879</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>9.040739613053415</v>
+        <v>8.967030587964764</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>20.92873364844394</v>
+        <v>20.94065643348189</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.2177699410837339</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.6479475120432654</v>
+        <v>0.6479475120432652</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.07294072068451402</v>
@@ -2472,7 +2472,7 @@
         <v>0.2777081081345091</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.6713531970327298</v>
+        <v>0.6713531970327296</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.05560341065887644</v>
@@ -2481,7 +2481,7 @@
         <v>0.248903313010204</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.6598179277388446</v>
+        <v>0.6598179277388444</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.04907023945144963</v>
+        <v>-0.04971639823256911</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1241241250785922</v>
+        <v>0.1148553722799119</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5272640982101771</v>
+        <v>0.5376926319802112</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.008033626445875446</v>
+        <v>-0.005499310140030152</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1860575892806607</v>
+        <v>0.1699153792678572</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5571389562227407</v>
+        <v>0.5728912625706246</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.005749015599717582</v>
+        <v>-0.006072782807646946</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1840853026940864</v>
+        <v>0.1780024134684781</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.5775004153825448</v>
+        <v>0.581525358839762</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1252910560918169</v>
+        <v>0.1281418857903524</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3252564529329789</v>
+        <v>0.3182201073715984</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.7751802661118652</v>
+        <v>0.7862566675695639</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1664540644334776</v>
+        <v>0.1678709843241079</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3810705885400841</v>
+        <v>0.3740432459955883</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.7866424987964648</v>
+        <v>0.7998651280780362</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1169310497151085</v>
+        <v>0.1211311441161289</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.3207478341824329</v>
+        <v>0.3172211318018622</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.75060093300055</v>
+        <v>0.7565867391065166</v>
       </c>
     </row>
     <row r="58">
